--- a/docs/shrcore/shr-core-DeviceName-model.xlsx
+++ b/docs/shrcore/shr-core-DeviceName-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$3</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Path</t>
   </si>
@@ -134,10 +134,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>The name of the device as given by the manufacturer.</t>
-  </si>
-  <si>
-    <t>shr-core-DeviceName-model.name</t>
+    <t>The name of the device.</t>
+  </si>
+  <si>
+    <t>shr-core-DeviceName-model.value</t>
   </si>
   <si>
     <t>1</t>
@@ -147,27 +147,7 @@
 </t>
   </si>
   <si>
-    <t>The name as plain unstructured or semi-structured text.</t>
-  </si>
-  <si>
-    <t>shr-core-DeviceName-model.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-nametype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
-</t>
+    <t>String representing the name of the device.</t>
   </si>
 </sst>
 </file>
@@ -316,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -325,7 +305,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.12109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -335,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -349,13 +329,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.4453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="32.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -661,103 +641,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" hidden="true">
-      <c r="A4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI4">
+  <autoFilter ref="A1:AI3">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -767,7 +652,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI3">
+  <conditionalFormatting sqref="A2:AI2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
